--- a/backend/PromoskopExcelParser/excel/LIST_3.xlsx
+++ b/backend/PromoskopExcelParser/excel/LIST_3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="280">
   <si>
     <t>KEK FRAMBUAZLI 180 G ETİ TARTİNİ</t>
   </si>
@@ -496,6 +496,366 @@
   </si>
   <si>
     <t>MEYVE ŞÖLENİ DOND.SOSU 315 G CARTE D'OR</t>
+  </si>
+  <si>
+    <t>http://images1.sanalmarket.com.tr/images/1000/urun/medium/05096438.jpg</t>
+  </si>
+  <si>
+    <t>http://akakce.cubecdn.net/eti/eti-cicibebe-dis-kasima-bebek-biskuvisi-130-gr-z.jpg</t>
+  </si>
+  <si>
+    <t>http://images1.sanalmarket.com.tr/images/1000/urun/medium/05096484.jpg</t>
+  </si>
+  <si>
+    <t>http://www.thefrenchiegrocery.com/217-264-thickbox/haribo-marshmallow-chamallow-bag-300-g-.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-Xc94wjAQym8/Tju49sk4y6I/AAAAAAAAClU/RgpVk1Um96o/s1600/SAM_1245.JPG</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-ISC2gT1_kAU/UBgsziwtgrI/AAAAAAAABf4/byK7VSmmomw/s1600/007.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/_NCjZ45Tkl2E/R0928dJ5MJI/AAAAAAAAB2U/Y_5h2kIKFqQ/s400/esranincikolataliparfesi.jpg</t>
+  </si>
+  <si>
+    <t>http://www.cekilishaber.com/upload/71659363526.jpg</t>
+  </si>
+  <si>
+    <t>http://images2.sanalmarket.com.tr/images/1000/urun//large/07040020_large.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ulker.com.tr/documents/Ulker/markalar/kekstra.jpg</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/eti-kakaolu-150g-d34f5f.jpg</t>
+  </si>
+  <si>
+    <t>http://www.cikolataport.com/media/uploads/watermarked/04aa74dc5b30abbc4d7aa2701710fea3ba280dc2.jpg</t>
+  </si>
+  <si>
+    <t>http://img.docstoccdn.com/thumb/orig/35860414.png</t>
+  </si>
+  <si>
+    <t>http://www.egretligida.com/content/products/midthumb/820.jpg</t>
+  </si>
+  <si>
+    <t>http://images1.sanalmarket.com.tr/images/1000/urun/medium/05098223.jpg</t>
+  </si>
+  <si>
+    <t>https://image.marketservisi.com/productphotos/373/super-market/cikolata-biskuvi-sekerleme/gofret/10040226074961625.jpg</t>
+  </si>
+  <si>
+    <t>http://www.cikolataport.com/media/uploads/watermarked/09e0fb3e6260aa76f2f9a482592c0347c6e659cb.jpg</t>
+  </si>
+  <si>
+    <t>http://www.cikolataport.com/media/uploads/watermarked/e255fb22a66c0689252a4afa5a9b9fb91b47c191.jpg</t>
+  </si>
+  <si>
+    <t>http://www.cikolataport.com/media/uploads/vince_sutlu_(1)_article_image.jpg</t>
+  </si>
+  <si>
+    <t>http://cikolataport.com/media/uploads/xroll_karamel_(1)_article_image.jpg</t>
+  </si>
+  <si>
+    <t>http://www.cikolataport.com/media/uploads/watermarked/f744caeef61ec6b6e51be3c13911610e3316617c.jpg</t>
+  </si>
+  <si>
+    <t>https://remkamarket.com/image/cache/data/i%25C3%25A7im%2520kefir-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://www.aytaslarmesrubat.com.tr/images/products/eti/kek/eti-browni-gold-visneli-cikolatali-kek-40g.jpg</t>
+  </si>
+  <si>
+    <t>http://www.happy.com.tr/image/cache/data/HAPPYKG/Eti_C._50_Gr_Canga_Yer_Fistikli_Cik._(18725)-600x600.jpg</t>
+  </si>
+  <si>
+    <t>http://mcdn01.gittigidiyor.net/12592/tn24/125926693_tn24_1.jpg</t>
+  </si>
+  <si>
+    <t>http://img-avansas.mncdn.com/assets/60289/ulker-mavi-yesil-light-elma-lifli-buskuvi-50gr-24lu-0-zoom.jpg</t>
+  </si>
+  <si>
+    <t>https://23646.radorecdn.net/Upload/Product/k_%25C3%259Clker-Haylayf-%25C5%259Eekerli-Bisk%25C3%25BCvi-ofiseteslim-1.jpg</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/ulker-cubuk-k-36g-14d0e8.jpg</t>
+  </si>
+  <si>
+    <t>http://www.adepo.com/urun-resimleri/734390/104/734390.jpg</t>
+  </si>
+  <si>
+    <t>http://img.ofix.com/UserFiles/Product/Vivident-Storming-Cilek-Aromali-Tatlandiricili-Serit-Sakiz-S18005-749.jpg</t>
+  </si>
+  <si>
+    <t>http://www.forumasel.com/attachments/tatlilar-ve-receller-44082d1397195185/sultan-lokum.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketpaketi.com/modules/catalog/products/pr_01_977_max.jpg%3Frev%3D1403873677</t>
+  </si>
+  <si>
+    <t>https://6562ce622aecf5fc6d10-02ab0d1c5ff44151dc7db9ff68249adf.ssl.cf1.rackcdn.com/eti-petito-72g-dbd8a2.jpg</t>
+  </si>
+  <si>
+    <t>http://tr.mondelezinternational.com/~/media/MondelezCorporate/tr/uploads/brands-detail/products/chocolate/milka/milka-yoghurt.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-l5Wc6GBPFtg/VBSaNRVe3bI/AAAAAAAAClU/84HDfHu6emU/s1600/IMG_9246.JPG</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-KCzNHMLyNac/Ufa_SKQRc-I/AAAAAAAAECQ/aeWed6415Ww/s1600/4d5f9d03-849e-47a7-9c19-ed2508eb8e22.jpg</t>
+  </si>
+  <si>
+    <t>http://www.sweetservices.com/images/P/OG854.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/6/60/Ramayana_Java.jpg</t>
+  </si>
+  <si>
+    <t>http://i00.i.aliimg.com/photo/v0/1532555598/_font_b_Umbrella_b_font_toy.jpg_120x120.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kampanyaburda.com/resimler/kampanya/a10129temmu2.gif</t>
+  </si>
+  <si>
+    <t>http://kampanyabul.org/img/a101-indirim.jpg</t>
+  </si>
+  <si>
+    <t>https://img-asset-ebebek.mncdn.com/www.ebebek/i/p/hd/51/lBLA-42351_1.jpg</t>
+  </si>
+  <si>
+    <t>http://images2.sanalmarket.com.tr/images/1000/urun//large/07018022_large.jpg</t>
+  </si>
+  <si>
+    <t>http://content.ebrosur.com/_Brochures/Bro_4385/Thumbnail/Small/0003.jpg</t>
+  </si>
+  <si>
+    <t>http://images1.sanalmarket.com.tr/images/1000/urun//large/07010980_large.jpg</t>
+  </si>
+  <si>
+    <t>http://www.hellobaby.com.tr/UrunResimleri/BLA-002985/500x500/Bebelac-3-Biberon-Mamasi-500gr-Eko-Paket-12729.jpg</t>
+  </si>
+  <si>
+    <t>http://images1.sanalmarket.com.tr/images/1000/urun//large/07019931_large.jpg</t>
+  </si>
+  <si>
+    <t>http://content.ebrosur.com/_Brochures/a3B/17/91/30bec9f7-0b6a-46be-a845-c35ca2181dc4.jpg</t>
+  </si>
+  <si>
+    <t>http://www.tadelle.com.tr/images/urunler/large/Tadelle_Gofret_35g.JPG</t>
+  </si>
+  <si>
+    <t>http://ozdilekteyim.com/content/images/thumbs/et_hosbes_gofret_vsnel_75_gr_111136.jpeg</t>
+  </si>
+  <si>
+    <t>https://img-asset-ebebek.mncdn.com/www.ebebek/i/p/hd/17/lMIL-42317_1.jpg</t>
+  </si>
+  <si>
+    <t>https://img-asset-ebebek.mncdn.com/www.ebebek/i/p/hd/31/lMIL-38031_1.jpg</t>
+  </si>
+  <si>
+    <t>https://img-asset-ebebek.mncdn.com/www.ebebek/i/p/hd/15/lMIL-42315_1.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kampanyaburda.com/resimler/kampanya/a10122temmu2.gif</t>
+  </si>
+  <si>
+    <t>http://mcdn01.gittigidiyor.net/12426/tn50/124266581_tn50_0.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-G2niFCenEqQ/U1Si3NsB-oI/AAAAAAAAHq4/p5mednjGbRo/s1600/ar%25C3%25A7elik2%2B(.JPG</t>
+  </si>
+  <si>
+    <t>http://cdn.yenisafak.net/site/kestaneli_pilav98a3f8bcd.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ucuzlukpazari.net/modules/catalog/products/pr_01_95_min.jpg%3Frev%3D1389447436</t>
+  </si>
+  <si>
+    <t>http://cdn.shopify.com/s/files/1/0354/9117/products/knorranalikizli_1024x1024.jpg%3Fv%3D1391022190</t>
+  </si>
+  <si>
+    <t>http://www.yoncayag.com.tr/popups/yonca_facebookyeni.jpg</t>
+  </si>
+  <si>
+    <t>http://www.afiyetolsun.net/Images/Tarifler/kullanicilardan_gelenler/29634062433317187500ezo_gelin_corbasi.jpg</t>
+  </si>
+  <si>
+    <t>http://www.corbatarifleri.info/wp-content/uploads/domates-corbasi.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-J8kYZDzLVDk/UwE-ZSvd9uI/AAAAAAAAAdI/QIkIqgRUZTI/s1600/2014-02-17%2B00.36.58.jpg</t>
+  </si>
+  <si>
+    <t>http://i1.ytimg.com/vi/elZg_A9oBTw/0.jpg</t>
+  </si>
+  <si>
+    <t>http://www.yemek-tarifleri.tv/wp-content/uploads/2010/12/yayla-corbasi-.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/_Uvz5Uvw3vf0/SP2LIky4qxI/AAAAAAAAB0w/tO-sl-TzRzg/s1600-h/mantar-corbasi-(1).jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-ATXaJpmCm1g/UAwEUS3XqPI/AAAAAAAABW0/irU-9vxJ46A/s1600/manti-corbasi.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kampanyaburda.com/resimler/kampanya/a10116ekim2.gif</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-hb1ZB8pxCkQ/U05RcSV-AGI/AAAAAAAAAtM/xf_nMBuqd7U/s1600/foto%25C4%259Fraf%2B1.JPG</t>
+  </si>
+  <si>
+    <t>http://www.tirimakoy.com/urunresimb/calve16.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketbizden.com/yonetim/resim/urunler/kucuk/oncu_biber_salca_1850g_tatli_7T6BoL.jpg</t>
+  </si>
+  <si>
+    <t>http://img.docstoccdn.com/thumb/orig/166178946.png</t>
+  </si>
+  <si>
+    <t>http://www.besice.com.tr/public/galery/440.jpg</t>
+  </si>
+  <si>
+    <t>http://www.besice.com.tr/public/galery/441.jpg</t>
+  </si>
+  <si>
+    <t>http://www.besice.com.tr/public/galery/445.jpg</t>
+  </si>
+  <si>
+    <t>http://store.donanimhaber.com/4f/80/48/4F8048558D46A0646A6B1A2423AD9938.jpg</t>
+  </si>
+  <si>
+    <t>http://www.misot.com.tr/upload/product/misot-limon-tuzu-1669b.jpg</t>
+  </si>
+  <si>
+    <t>http://www.muratgida.com.tr/uploads/urunler/8811663-dr-oetker-hamur-kabartma-toz-10-lu-1000x1000.jpg</t>
+  </si>
+  <si>
+    <t>http://www.tulumba.com/mmTULUMBA/Images/FB424042NB441_250.jpg</t>
+  </si>
+  <si>
+    <t>http://image.cdn.ulkehaber.com/uploaded/haberler/2014/06/25/buyuk/1403700240_ramazankolisi.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-VHVo6kRvwJ0/Tvox06Ka6AI/AAAAAAAABVA/VQJznS03jY0/s320/lahana%252Bsarmas%2525C4%2525B1%252Bbarbunya%252Bpilaki%252Bev%252Byo%2525C4%25259Furdu.jpg</t>
+  </si>
+  <si>
+    <t>http://www.egonomik.com/wp-content/uploads/2012/06/turkel-sarma-konserve.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kredikartlari.net/image/kampanya/a101_10_ekim_2010.jpg</t>
+  </si>
+  <si>
+    <t>https://imgv2-2-f.scribdassets.com/img/word_document/124930863/164x212/595ca0ebda/1408987474</t>
+  </si>
+  <si>
+    <t>http://babygotsauce.com/wp-content/uploads/2011/07/becherovka-e1310325375307.jpg</t>
+  </si>
+  <si>
+    <t>http://video.google.com/ThumbnailServer2%3Fapp%3Dblogger%26contentid%3Db89d69b2332df66b%26offsetms%3D5000%26itag%3Dw320%26sigh%3DEqz1djrsiq3tjNkef1ZB10PJfWQ</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-rqlAuPMaR6g/U05Rk7aplGI/AAAAAAAAAtU/BNOJLBuWdg8/s1600/foto%25C4%259Fraf%2B2.JPG</t>
+  </si>
+  <si>
+    <t>http://images3.sanalmarket.com.tr/images/1000/urun//large/09010295_large.jpg</t>
+  </si>
+  <si>
+    <t>http://image.slidesharecdn.com/enp78magazinnisan-haziranbaski-140422025222-phpapp02/95/enplus-magazine-nisanmayshaziran-2014-4-638.jpg%3Fcb%3D1398153801</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-1UV7LBDhnKA/U2tWfxyVnPI/AAAAAAAAAlI/PNiLsxh1HpI/s1600/8.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/--hEiQ_ERHW8/U2y2jysUQXI/AAAAAAAAAog/4emtFfUZA9w/s1600/12.png</t>
+  </si>
+  <si>
+    <t>https://eeatingh.az/assets/thumbnails/fit_200x200_a843ea1737b774dba05da8b1cd6753c4.png</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/_tW7JS1RFyRo/TLaTIlf5dOI/AAAAAAAAAO0/WsdKmzmpIqg/s1600/amerikan%2Bsalata.JPG</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/_bdVNa4gLZiU/SfH4Q--vTWI/AAAAAAAAEAA/2EzpVSQkY0A/s1600-h/100_8121.JPG</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/_7xuSSZXCBWU/SQrww7yG4bI/AAAAAAAACSQ/gW-LVnxx_XU/s400/arnavut%2Bci%25C4%259Feri%2B(2).JPG</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-8DC4WpYogkY/U09ypcIQ7yI/AAAAAAAAAtk/kXJW9Oo927Q/s1600/foto%25C4%259Fraf%2B1%2B(4).JPG</t>
+  </si>
+  <si>
+    <t>http://www.ustunsupermarket.com/image/cache/data/tat%2520m%25C4%25B1s%25C4%25B1r%25203%2520l%25C3%25BC-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://pi.ce-tescoassets.com/assets/TR/836/8690637617836/ShotType1_328x328.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-jscTEqpeLfQ/UaZreixkS-I/AAAAAAAABBM/EaS9GJtZSO4/s1600/101_3724.JPG</t>
+  </si>
+  <si>
+    <t>http://www.marketbizden.com/yonetim/resim/urunler/kucuk/carte_door_325m_karsos_4mhhVc.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/4/4f/Lale_dergisi,_1919.jpg</t>
+  </si>
+  <si>
+    <t>http://www.gold-gida.com/image/cache/data/80%2520gr-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://www.abakaygida.com/urunler/a520afbf77beb8f4af5bad29794d4965-7ae65783adc9d0e1a1e676803b4785d9</t>
+  </si>
+  <si>
+    <t>http://www.ozdilekteyim.com/content/images/thumbs/sana_margarn_250_gr_paket_54657.jpeg</t>
+  </si>
+  <si>
+    <t>http://www.babamama.com.tr/image/cache/data/gida/8690637112508-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://pi.ce-tescoassets.com/assets/TR/011/8690106011011/ShotType1_135x135.jpg</t>
+  </si>
+  <si>
+    <t>http://pi.ce-tescoassets.com/assets/TR/028/8690106011028/ShotType1_135x135.jpg</t>
+  </si>
+  <si>
+    <t>http://kimkapinda.com/4615-2643-large/bizim-margarin-250-gr-paket.jpg</t>
+  </si>
+  <si>
+    <t>http://www.starling-emarket.com/FB,1486,20,ulker-teremyag-kase-250-gr-margarin.jpg</t>
+  </si>
+  <si>
+    <t>http://www.alisverisrehberi.com/haber/upload/buyuk/7343_a101_24_kasim_2011_firsat_urunleri_brosuru_1_314.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-WQe-mTTfidE/UfgV0arA75I/AAAAAAABTlo/hJgaHqUVl5k/s1600/011.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-UjmDVKIjJ_Y/UjmrDZc2o5I/AAAAAAABX0Y/hiUuiS3PTjY/s1600/colin-s-tum-yaz1.jpg</t>
+  </si>
+  <si>
+    <t>http://www.resimbul.com/etiket/orkide/orkide-misir-yagi-5-lt/orkide-misir-yagi-5-lt-d708c9.jpg</t>
+  </si>
+  <si>
+    <t>http://store.donanimhaber.com/62/34/80/62348009D858D53605FA892008FC9671.jpg</t>
+  </si>
+  <si>
+    <t>http://www.10kozmetik.com/modules/catalog/products/pr_01_810_max.jpg%3Frev%3D1410253823</t>
+  </si>
+  <si>
+    <t>https://www.atakentmarket.com/admin/PICS/products/big_crop_yumos_lavanta_2000ml_600x600.jpg</t>
+  </si>
+  <si>
+    <t>http://img.docstoccdn.com/thumb/orig/106415322.png</t>
+  </si>
+  <si>
+    <t>http://img.docstoccdn.com/thumb/orig/149317407.png</t>
+  </si>
+  <si>
+    <t>http://www.ravika.com.tr/vImages/feimg/urun_big_img/500ml-Klasik-Cam-Naturel-Sizma-b.jpg</t>
+  </si>
+  <si>
+    <t>http://images3.sanalmarket.com.tr/images/1000/urun//large/04205020_large.jpg</t>
   </si>
 </sst>
 </file>
@@ -539,8 +899,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,1296 +1204,1727 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B160"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD80"/>
+      <selection activeCell="C5" activeCellId="6" sqref="C20 C19 C16 C11:C12 C9 C6 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>17001171</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>17001181</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>17001192</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>17001193</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>17001211</v>
       </c>
       <c r="B5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>17001212</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17001221</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17001227</v>
       </c>
       <c r="B8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>17001242</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17001247</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>17001249</v>
       </c>
       <c r="B11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17001253</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17001254</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>17001255</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17001271</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17001272</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17001275</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17001293</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17001312</v>
       </c>
       <c r="B19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17001321</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17001341</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17001343</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17001352</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>17001372</v>
       </c>
       <c r="B24" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17001375</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>17001376</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>17001377</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>17001379</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>17001380</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>17001381</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>17001403</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>17001411</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>17001422</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>17001464</v>
       </c>
       <c r="B34" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>17001465</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>17001466</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>17001502</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>17001511</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>17001513</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>17001514</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>17001516</v>
       </c>
       <c r="B41" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>17001528</v>
       </c>
       <c r="B42" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>17001532</v>
       </c>
       <c r="B43" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>17001545</v>
       </c>
       <c r="B44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>17001546</v>
       </c>
       <c r="B45" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>17001558</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>17001571</v>
       </c>
       <c r="B47" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>17001579</v>
       </c>
       <c r="B48" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>17001580</v>
       </c>
       <c r="B49" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>17001582</v>
       </c>
       <c r="B50" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>17001592</v>
       </c>
       <c r="B51" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>17001593</v>
       </c>
       <c r="B52" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>17001597</v>
       </c>
       <c r="B53" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>17001602</v>
       </c>
       <c r="B54" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>17001603</v>
       </c>
       <c r="B55" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>17001624</v>
       </c>
       <c r="B56" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>17001636</v>
       </c>
       <c r="B57" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>17001637</v>
       </c>
       <c r="B58" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>17001647</v>
       </c>
       <c r="B59" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>17001686</v>
       </c>
       <c r="B60" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>17001689</v>
       </c>
       <c r="B61" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>17001690</v>
       </c>
       <c r="B62" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>17001710</v>
       </c>
       <c r="B63" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>17001717</v>
       </c>
       <c r="B64" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>17001723</v>
       </c>
       <c r="B65" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>17001733</v>
       </c>
       <c r="B66" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>17001734</v>
       </c>
       <c r="B67" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>17001735</v>
       </c>
       <c r="B68" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>17001744</v>
       </c>
       <c r="B69" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>17001745</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>17001749</v>
       </c>
       <c r="B71" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>18000181</v>
       </c>
       <c r="B72" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>18000182</v>
       </c>
       <c r="B73" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>18000183</v>
       </c>
       <c r="B74" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>18000184</v>
       </c>
       <c r="B75" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>18000185</v>
       </c>
       <c r="B76" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>18000186</v>
       </c>
       <c r="B77" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>18000187</v>
       </c>
       <c r="B78" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>18000222</v>
       </c>
       <c r="B79" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>18000223</v>
       </c>
       <c r="B80" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>18000243</v>
       </c>
       <c r="B81" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>18090263</v>
       </c>
       <c r="B82" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>18000273</v>
       </c>
       <c r="B83" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>18000275</v>
       </c>
       <c r="B84" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>18000311</v>
       </c>
       <c r="B85" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>18000392</v>
       </c>
       <c r="B86" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>18000393</v>
       </c>
       <c r="B87" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>18000561</v>
       </c>
       <c r="B88" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>18000562</v>
       </c>
       <c r="B89" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>18000563</v>
       </c>
       <c r="B90" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>18000631</v>
       </c>
       <c r="B91" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>18000632</v>
       </c>
       <c r="B92" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>18000633</v>
       </c>
       <c r="B93" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>18000634</v>
       </c>
       <c r="B94" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>18000635</v>
       </c>
       <c r="B95" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>18000636</v>
       </c>
       <c r="B96" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>18000637</v>
       </c>
       <c r="B97" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>18000641</v>
       </c>
       <c r="B98" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>18000642</v>
       </c>
       <c r="B99" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>18000643</v>
       </c>
       <c r="B100" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>18000695</v>
       </c>
       <c r="B101" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>18000711</v>
       </c>
       <c r="B102" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>18000801</v>
       </c>
       <c r="B103" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>18000802</v>
       </c>
       <c r="B104" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>18000851</v>
       </c>
       <c r="B105" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>18000853</v>
       </c>
       <c r="B106" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>18000941</v>
       </c>
       <c r="B107" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>18000972</v>
       </c>
       <c r="B108" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>18000973</v>
       </c>
       <c r="B109" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>18000974</v>
       </c>
       <c r="B110" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>18000992</v>
       </c>
       <c r="B111" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>18000996</v>
       </c>
       <c r="B112" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>18001001</v>
       </c>
       <c r="B113" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>18001002</v>
       </c>
       <c r="B114" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>18001013</v>
       </c>
       <c r="B115" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>18001028</v>
       </c>
       <c r="B116" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>18001029</v>
       </c>
       <c r="B117" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>18001030</v>
       </c>
       <c r="B118" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>18001031</v>
       </c>
       <c r="B119" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>18001048</v>
       </c>
       <c r="B120" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>18001049</v>
       </c>
       <c r="B121" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>18001050</v>
       </c>
       <c r="B122" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>18001061</v>
       </c>
       <c r="B123" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>18001079</v>
       </c>
       <c r="B124" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>18001110</v>
       </c>
       <c r="B125" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>18001115</v>
       </c>
       <c r="B126" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>18001116</v>
       </c>
       <c r="B127" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>18001117</v>
       </c>
       <c r="B128" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>18001118</v>
       </c>
       <c r="B129" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>18001119</v>
       </c>
       <c r="B130" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>18001120</v>
       </c>
       <c r="B131" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>18001121</v>
       </c>
       <c r="B132" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>18001122</v>
       </c>
       <c r="B133" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>18001123</v>
       </c>
       <c r="B134" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>18001130</v>
       </c>
       <c r="B135" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>18001144</v>
       </c>
       <c r="B136" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>18001212</v>
       </c>
       <c r="B137" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>18001225</v>
       </c>
       <c r="B138" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>18001226</v>
       </c>
       <c r="B139" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>18001227</v>
       </c>
       <c r="B140" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>18001230</v>
       </c>
       <c r="B141" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>18001243</v>
       </c>
       <c r="B142" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>19000001</v>
       </c>
       <c r="B143" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>19000003</v>
       </c>
       <c r="B144" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>19000004</v>
       </c>
       <c r="B145" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>19000015</v>
       </c>
       <c r="B146" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>19000016</v>
       </c>
       <c r="B147" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>19000035</v>
       </c>
       <c r="B148" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>19000038</v>
       </c>
       <c r="B149" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>19000085</v>
       </c>
       <c r="B150" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>19000148</v>
       </c>
       <c r="B151" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>19000149</v>
       </c>
       <c r="B152" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>19000288</v>
       </c>
       <c r="B153" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>19000615</v>
       </c>
       <c r="B154" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>19000724</v>
       </c>
       <c r="B155" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>19000725</v>
       </c>
       <c r="B156" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>19000726</v>
       </c>
       <c r="B157" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>19000727</v>
       </c>
       <c r="B158" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>19000746</v>
       </c>
       <c r="B159" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>19000754</v>
       </c>
       <c r="B160" t="s">
         <v>138</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
